--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.2245412674578889</v>
+        <v>1.423040137498</v>
       </c>
       <c r="R2">
-        <v>2.020871407121</v>
+        <v>12.807361237482</v>
       </c>
       <c r="S2">
-        <v>0.0008902107398089979</v>
+        <v>0.002341515336309992</v>
       </c>
       <c r="T2">
-        <v>0.0008902107398089979</v>
+        <v>0.002341515336309991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.1557687121653333</v>
+        <v>0.5352443529653332</v>
       </c>
       <c r="R3">
-        <v>1.401918409488</v>
+        <v>4.817199176688</v>
       </c>
       <c r="S3">
-        <v>0.0006175567728181736</v>
+        <v>0.0008807080194836794</v>
       </c>
       <c r="T3">
-        <v>0.0006175567728181736</v>
+        <v>0.0008807080194836793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>10.90465538638644</v>
+        <v>103.8834668730528</v>
       </c>
       <c r="R4">
-        <v>98.14189847747801</v>
+        <v>934.9512018574749</v>
       </c>
       <c r="S4">
-        <v>0.04323232628362095</v>
+        <v>0.1709331483087883</v>
       </c>
       <c r="T4">
-        <v>0.04323232628362095</v>
+        <v>0.1709331483087882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.03810276522211111</v>
+        <v>0.2025491752034444</v>
       </c>
       <c r="R5">
-        <v>0.342924886999</v>
+        <v>1.822942576831</v>
       </c>
       <c r="S5">
-        <v>0.0001510612779608784</v>
+        <v>0.0003332808313683079</v>
       </c>
       <c r="T5">
-        <v>0.0001510612779608784</v>
+        <v>0.0003332808313683079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>1.938915820719111</v>
+        <v>3.576086948336</v>
       </c>
       <c r="R6">
-        <v>17.450242386472</v>
+        <v>32.184782535024</v>
       </c>
       <c r="S6">
-        <v>0.007686977573124449</v>
+        <v>0.005884206785782605</v>
       </c>
       <c r="T6">
-        <v>0.007686977573124449</v>
+        <v>0.005884206785782604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
         <v>1.345064200490667</v>
@@ -883,10 +883,10 @@
         <v>12.105577804416</v>
       </c>
       <c r="S7">
-        <v>0.005332608168491598</v>
+        <v>0.002213211258614173</v>
       </c>
       <c r="T7">
-        <v>0.005332608168491598</v>
+        <v>0.002213211258614172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>94.16179523489956</v>
+        <v>261.0582092826889</v>
       </c>
       <c r="R8">
-        <v>847.4561571140961</v>
+        <v>2349.5238835442</v>
       </c>
       <c r="S8">
-        <v>0.3733115179530368</v>
+        <v>0.4295534501084294</v>
       </c>
       <c r="T8">
-        <v>0.3733115179530368</v>
+        <v>0.4295534501084293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.3290177130408889</v>
+        <v>0.5090042387102222</v>
       </c>
       <c r="R9">
-        <v>2.961159417368</v>
+        <v>4.581038148392</v>
       </c>
       <c r="S9">
-        <v>0.001304415464704388</v>
+        <v>0.0008375317039772903</v>
       </c>
       <c r="T9">
-        <v>0.001304415464704388</v>
+        <v>0.0008375317039772903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N10">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q10">
-        <v>2.804213730581667</v>
+        <v>3.074497695458</v>
       </c>
       <c r="R10">
-        <v>25.237923575235</v>
+        <v>27.670479259122</v>
       </c>
       <c r="S10">
-        <v>0.01111751620513065</v>
+        <v>0.005058875934463762</v>
       </c>
       <c r="T10">
-        <v>0.01111751620513065</v>
+        <v>0.005058875934463762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.890544</v>
       </c>
       <c r="O11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q11">
-        <v>1.94533845112</v>
+        <v>1.156402750938667</v>
       </c>
       <c r="R11">
-        <v>17.50804606008001</v>
+        <v>10.407624758448</v>
       </c>
       <c r="S11">
-        <v>0.00771244057431539</v>
+        <v>0.001902781731114564</v>
       </c>
       <c r="T11">
-        <v>0.00771244057431539</v>
+        <v>0.001902781731114564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N12">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q12">
-        <v>136.1842511533034</v>
+        <v>224.4416521229972</v>
       </c>
       <c r="R12">
-        <v>1225.65826037973</v>
+        <v>2019.974869106975</v>
       </c>
       <c r="S12">
-        <v>0.5399127044308366</v>
+        <v>0.3693034066324701</v>
       </c>
       <c r="T12">
-        <v>0.5399127044308366</v>
+        <v>0.3693034066324701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H13">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N13">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q13">
-        <v>0.4758514932183334</v>
+        <v>0.4376102654945556</v>
       </c>
       <c r="R13">
-        <v>4.282663438965001</v>
+        <v>3.938492389451</v>
       </c>
       <c r="S13">
-        <v>0.001886549027770825</v>
+        <v>0.0007200577980771321</v>
       </c>
       <c r="T13">
-        <v>0.001886549027770825</v>
+        <v>0.0007200577980771322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H14">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I14">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J14">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N14">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q14">
-        <v>0.03423361178455556</v>
+        <v>0.08186336732000001</v>
       </c>
       <c r="R14">
-        <v>0.308102506061</v>
+        <v>0.7367703058799999</v>
       </c>
       <c r="S14">
-        <v>0.0001357217282065027</v>
+        <v>0.0001347005787192897</v>
       </c>
       <c r="T14">
-        <v>0.0001357217282065027</v>
+        <v>0.0001347005787192897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H15">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I15">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J15">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.890544</v>
       </c>
       <c r="O15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q15">
-        <v>0.02374853264533333</v>
+        <v>0.03079105354666667</v>
       </c>
       <c r="R15">
-        <v>0.213736793808</v>
+        <v>0.27711948192</v>
       </c>
       <c r="S15">
-        <v>9.415284350590571E-05</v>
+        <v>5.066457522935716E-05</v>
       </c>
       <c r="T15">
-        <v>9.41528435059057E-05</v>
+        <v>5.066457522935715E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H16">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I16">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J16">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N16">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q16">
-        <v>1.662526195599778</v>
+        <v>5.976114224055556</v>
       </c>
       <c r="R16">
-        <v>14.962735760398</v>
+        <v>53.7850280165</v>
       </c>
       <c r="S16">
-        <v>0.006591210120492798</v>
+        <v>0.009833287718622791</v>
       </c>
       <c r="T16">
-        <v>0.006591210120492797</v>
+        <v>0.009833287718622789</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H17">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I17">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J17">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N17">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q17">
-        <v>0.005809156095444445</v>
+        <v>0.01165206594888889</v>
       </c>
       <c r="R17">
-        <v>0.05228240485900001</v>
+        <v>0.10486859354</v>
       </c>
       <c r="S17">
-        <v>2.303083617518728E-05</v>
+        <v>1.917267854931261E-05</v>
       </c>
       <c r="T17">
-        <v>2.303083617518728E-05</v>
+        <v>1.917267854931261E-05</v>
       </c>
     </row>
   </sheetData>
